--- a/resources/import/account_statement.xlsx
+++ b/resources/import/account_statement.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>New/Renewal</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>اسم العميل</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>Policy Start Date</t>
@@ -55,7 +58,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -66,6 +69,12 @@
       <b/>
       <sz val="11.0"/>
       <color theme="0"/>
+      <name val="Caladea"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Caladea"/>
     </font>
     <font>
@@ -211,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -220,6 +229,9 @@
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -239,27 +251,28 @@
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="4" fontId="4" numFmtId="165" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="5" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="5" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,15 +494,15 @@
     <col customWidth="1" min="1" max="1" width="16.43"/>
     <col customWidth="1" min="2" max="2" width="22.14"/>
     <col customWidth="1" min="3" max="3" width="37.29"/>
-    <col customWidth="1" min="4" max="4" width="17.86"/>
-    <col customWidth="1" min="5" max="5" width="13.71"/>
-    <col customWidth="1" min="6" max="6" width="14.57"/>
-    <col customWidth="1" min="7" max="7" width="14.0"/>
-    <col customWidth="1" min="8" max="8" width="11.57"/>
-    <col customWidth="1" min="9" max="9" width="17.86"/>
-    <col customWidth="1" min="10" max="10" width="27.86"/>
-    <col customWidth="1" min="11" max="11" width="7.86"/>
-    <col customWidth="1" min="12" max="26" width="8.71"/>
+    <col customWidth="1" min="4" max="5" width="17.86"/>
+    <col customWidth="1" min="6" max="6" width="13.71"/>
+    <col customWidth="1" min="7" max="7" width="14.57"/>
+    <col customWidth="1" min="8" max="8" width="14.0"/>
+    <col customWidth="1" min="9" max="9" width="11.57"/>
+    <col customWidth="1" min="10" max="10" width="17.86"/>
+    <col customWidth="1" min="11" max="11" width="27.86"/>
+    <col customWidth="1" min="12" max="12" width="7.86"/>
+    <col customWidth="1" min="13" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -511,7 +524,7 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -520,54 +533,70 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="F4" s="13">
-        <f>SUM(F3)</f>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:I5" si="1">SUM(G2:G4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="13">
-        <f>SUM(G2:G3)</f>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="13">
-        <f>SUM(H3)</f>
+      <c r="I5" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="18">
-        <f>F4-G4-H4</f>
+      <c r="J5" s="20">
+        <f>G5-H5-I5</f>
         <v>0</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>10</v>
+      <c r="K5" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1"/>
     <row r="8" ht="14.25" customHeight="1"/>
@@ -1559,6 +1588,7 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/resources/import/account_statement.xlsx
+++ b/resources/import/account_statement.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>New/Renewal</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>صافي كل وثيقة</t>
+  </si>
+  <si>
+    <t>نوع العربيه</t>
   </si>
   <si>
     <t>صافي التحصيل</t>
@@ -248,7 +251,7 @@
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -501,7 +504,7 @@
     <col customWidth="1" min="9" max="9" width="11.57"/>
     <col customWidth="1" min="10" max="10" width="17.86"/>
     <col customWidth="1" min="11" max="11" width="27.86"/>
-    <col customWidth="1" min="12" max="12" width="7.86"/>
+    <col customWidth="1" min="12" max="12" width="44.43"/>
     <col customWidth="1" min="13" max="27" width="8.71"/>
   </cols>
   <sheetData>
@@ -539,7 +542,9 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="10"/>
@@ -594,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>

--- a/resources/import/account_statement.xlsx
+++ b/resources/import/account_statement.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>New/Renewal</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>نوع العربيه</t>
+  </si>
+  <si>
+    <t>الحاله</t>
   </si>
   <si>
     <t>صافي التحصيل</t>
@@ -505,7 +508,8 @@
     <col customWidth="1" min="10" max="10" width="17.86"/>
     <col customWidth="1" min="11" max="11" width="27.86"/>
     <col customWidth="1" min="12" max="12" width="44.43"/>
-    <col customWidth="1" min="13" max="27" width="8.71"/>
+    <col customWidth="1" min="13" max="13" width="13.86"/>
+    <col customWidth="1" min="14" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -544,6 +548,9 @@
       </c>
       <c r="L1" s="9" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -599,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
